--- a/content_wordpress/structure_page_tai_lieu_wordpress.xlsx
+++ b/content_wordpress/structure_page_tai_lieu_wordpress.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tài liệu wordpress" sheetId="3" r:id="rId1"/>
     <sheet name="Lập trình với wordpress" sheetId="1" r:id="rId2"/>
-    <sheet name="Lập trình với wordpress (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="khóa học wordpress" sheetId="4" r:id="rId3"/>
+    <sheet name="Blog wordpress" sheetId="5" r:id="rId4"/>
+    <sheet name="Tài liệu wordpress nâng cao" sheetId="6" r:id="rId5"/>
+    <sheet name="Thiết kế website bằng wordpr" sheetId="7" r:id="rId6"/>
+    <sheet name="Lập trình web nâng cao" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +122,180 @@
   </si>
   <si>
     <t>Hướng dẫn Cách tùy chỉnh form đăng ký thành viên trong wordpress</t>
+  </si>
+  <si>
+    <t>&lt;h1 style="margin-top: 10px;"&gt;Thiết Kế Web Chuẩn SEO bằng WordPress&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Thiết Kế Web Chuẩn SEO bằng WordPress</t>
+  </si>
+  <si>
+    <t>http://m.inet.edu.vn/khoa-hoc/31/khoa-hoc-wordpress-chuan-seo.html</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: center;"&gt;&lt;span style="font-size: x-large;"&gt;KHÓA HỌC THIẾT KẾ WEB CHUẨN SEO &lt;br&gt; BẰNG WORDPRESS&lt;/span&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>KHÓA HỌC THIẾT KẾ WEB CHUẨN SEO</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="line-height: 115%;" new=""&gt;BẰNG WORDPRESS&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>BẰNG WORDPRESS</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>&lt;h3 style=""&gt;&lt;b&gt;&lt;span style="" new=""&gt;THIẾT KẾ WEBSITE CHUẨN SEO BẰNG WORDPRESS LÀ SỰ KẾT HỢP KIẾN THỨC CỦA SEO MASTER &amp;amp; THIẾT KẾ WEBSITE CHUYÊN NGHIỆP 2016&lt;br&gt; &lt;br&gt; &lt;/span&gt;&lt;/b&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>THIẾT KẾ WEBSITE CHUẨN SEO BẰNG WORDPRESS LÀ SỰ KẾT HỢP KIẾN THỨC CỦA SEO MASTER &amp; THIẾT KẾ WEBSITE CHUYÊN NGHIỆP 2016</t>
+  </si>
+  <si>
+    <t>Khóa học wordpress</t>
+  </si>
+  <si>
+    <t>Blogs wordpress</t>
+  </si>
+  <si>
+    <t>https://kiemtiencenter.com/chon-wordpress-hay-blogger/</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="entry-title"&gt;Chọn WordPress hay Blogger để làm Blog/Website&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Chọn WordPress hay Blogger để làm Blog</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;&lt;span &gt;Chọn WordPress hay Blogger để làm Blog/Website&lt;/span&gt;&lt;/strong&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Chọn WordPress hay Blogger để làm Blog/Website</t>
+  </si>
+  <si>
+    <t>&lt;h3 &gt;&lt;span&gt;&lt;strong &gt;A. WORDPRESS.ORG&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>A. WORDPRESS.ORG</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://kiemtiencenter.com/viet-blog-kiem-tien/"&gt;làm blog&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://kiemtiencenter.com/wordpress/"&gt;Wordpress&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>làm blog</t>
+  </si>
+  <si>
+    <t>Tài liệu wordpress nâng cao</t>
+  </si>
+  <si>
+    <t>http://www.thuthuatwordpress.net/tag/wordpress-nang-cao</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thuthuatwordpress.net"&gt;&lt;img src="http://www.thuthuatwordpress.net/wp-content/uploads/2013/07/oki.png" alt="Thủ Thuật Wordpress – Wordpress – Hướng dẫn Wordpress" title="Thủ Thuật Wordpress – Wordpress – Hướng dẫn Wordpress"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Thủ Thuật Wordpress – Wordpress – Hướng dẫn Wordpress</t>
+  </si>
+  <si>
+    <t>a, image</t>
+  </si>
+  <si>
+    <t>&lt;h2 class="title"&gt;&lt;a href=""&gt;Tài liệu chi tiết hướng dẫn wordpress từ A-Z&lt;/a&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3 class="posts-widgettitle"&gt;&lt;a href=""Hướng dẫn cách tạo blog wordpress trên host riêng"&gt;Hướng dẫn cách tạo blog wordpress trên host riêng&lt;/a&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cách tạo blog wordpress trên host riêng"&gt;Hướng dẫn cách tạo blog wordpress trên host riêng</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.thuthuatwordpress.net"&gt;Thủ Thuật WordPress&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Thủ Thuật WordPress</t>
+  </si>
+  <si>
+    <t>Thiết kế website bằng wordpress</t>
+  </si>
+  <si>
+    <t>5 bước làm một website bằng WordPress dễ dàng</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="entry-title"&gt;5 bước làm một website bằng WordPress dễ dàng&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="" target="_blank"&gt;làm một website riêng để kiếm tiền online&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>làm một website riêng để kiếm tiền online</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;span&gt;&lt;strong&gt;Hướng dẫn làm một website bằng WordPress dễ dàng&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn làm một website bằng WordPress dễ dàng</t>
+  </si>
+  <si>
+    <t>&lt;a class="no-link" rel="v:url" property="v:title" href=""&gt;&lt;span&gt;&lt;/span&gt;5 bước làm một website bằng WordPress dễ dàng&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3 style="text-align: left;"&gt;&lt;span id="Tim_hieu_tai_sao_nen_tu_lam_website"&gt;&lt;span style="color: #278db3;"&gt;&lt;strong&gt;Tìm hiểu tại sao nên tự làm website ?&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Tìm hiểu tại sao nên tự làm website ?</t>
+  </si>
+  <si>
+    <t>Lập trình web nâng cao</t>
+  </si>
+  <si>
+    <t>http://it.myclass.vn/course/lap-trinh-php-can-ban-den-nang-cao-web-ban-hang/</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Lập trình php căn bản đến nâng cao – web bán hàng&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Lập trình php căn bản đến nâng cao – web bán hàng</t>
+  </si>
+  <si>
+    <t>&lt;a class="ytp-title-link yt-uix-sessionlink" target="_blank" data-sessionlink="feature=player-title" href="https://www.youtube.com/watch?v=w6IpL7Uc2Ak"&gt;[itclass.vn] -Lập trình php căn bản đến nâng cao - web bán hàng&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Lập trình php căn bản đến nâng cao - web bán hàng</t>
+  </si>
+  <si>
+    <t>a,video</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;b&gt;Đề cương khóa học&lt;/b&gt;&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>Đề cương khóa học</t>
+  </si>
+  <si>
+    <t>&lt;span itemprop="title"&gt;Lập trình php căn bản đến nâng cao - web bán hàng&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>&lt;h5 class="course_section"&gt;Chương III: Xây dựng website bán hàng bằng ngôn ngữ php&lt;/h5&gt;</t>
+  </si>
+  <si>
+    <t>Xây dựng website bán hàng bằng ngôn ngữ php</t>
+  </si>
+  <si>
+    <t>h5</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1241,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1099,16 +1277,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,13 +1294,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1131,13 +1309,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1146,13 +1324,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1168,6 +1346,993 @@
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F10" s="2"/>
     </row>

--- a/content_wordpress/structure_page_tai_lieu_wordpress.xlsx
+++ b/content_wordpress/structure_page_tai_lieu_wordpress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Tài liệu wordpress" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,20 @@
     <sheet name="Tài liệu wordpress nâng cao" sheetId="6" r:id="rId5"/>
     <sheet name="Thiết kế website bằng wordpr" sheetId="7" r:id="rId6"/>
     <sheet name="Lập trình web nâng cao" sheetId="8" r:id="rId7"/>
+    <sheet name="Làm quen với wordpress" sheetId="9" r:id="rId8"/>
+    <sheet name="Hướng dẫn sử dụng wordpress" sheetId="10" r:id="rId9"/>
+    <sheet name="thiết kế website bán hàn" sheetId="11" r:id="rId10"/>
+    <sheet name="thiết kế website miễn phí" sheetId="12" r:id="rId11"/>
+    <sheet name="bằng wordpress ở tpHCM" sheetId="13" r:id="rId12"/>
+    <sheet name="khóa học wordpress nâng cao" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -256,9 +263,6 @@
     <t>Tìm hiểu tại sao nên tự làm website ?</t>
   </si>
   <si>
-    <t>Lập trình web nâng cao</t>
-  </si>
-  <si>
     <t>http://it.myclass.vn/course/lap-trinh-php-can-ban-den-nang-cao-web-ban-hang/</t>
   </si>
   <si>
@@ -296,6 +300,228 @@
   </si>
   <si>
     <t>h5</t>
+  </si>
+  <si>
+    <t>Lập trình website nâng cao</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Tổng quan WordPress và các chức năng chính&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Tổng quan WordPress và các chức năng chính</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://thachpham.com/series/hoc-wordpress-co-ban" class="series-885" title="Học WordPress cơ bản" data-wpel-link="internal"&gt;Học WordPress cơ bản&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bài này thuộc phần 7 của 50 phần trong serie Học WordPress cơ bản</t>
+  </si>
+  <si>
+    <t>https://thachpham.com/wordpress/wordpress-tutorials/cac-chuc-nang-chinh.html</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.youtube.com/watch?v=bWaGeykpmoQ"&gt;[WP cơ bản - 06] Tổng quan một website WordPress&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a, video</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tổng quan một website WordPress</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;xem qua một số tính năng của WordPress&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>xem qua một số tính năng của WordPress</t>
+  </si>
+  <si>
+    <t>Làm quen với wordpress</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng wordpress</t>
+  </si>
+  <si>
+    <t>https://hoangluyen.com/huong-dan-su-dung-wordpress-toan-tap/</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="entry-title"&gt;Hướng dẫn cách sử dụng WordPress toàn tập&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cách sử dụng WordPress toàn tập</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bài viết&amp;nbsp;thuộc serie&amp;nbsp;&lt;a title="Học WordPress" href="" target=""&gt;Học WordPress&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bài viết thuộc serie Học WordPress</t>
+  </si>
+  <si>
+    <t>p,a</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;span id=""&gt;Hướng dẫn cách sử dụng&amp;nbsp;&lt;span style=""&gt;WordPress Blog&lt;/span&gt;&amp;nbsp;–&amp;nbsp;&lt;a title="http://wordpress.com" href="http://wordpress.com" target="" rel=""&gt;WordPress.com&lt;/a&gt;&lt;a name=""&gt;&lt;/a&gt;&lt;/span&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn cách sử dụng WordPress Blog – WordPress.com</t>
+  </si>
+  <si>
+    <t>&lt;a href="" title="Đào tạo học thiết kế WordPress cầm tay chỉ việc"&gt;</t>
+  </si>
+  <si>
+    <t>Đào tạo học thiết kế WordPress cầm tay chỉ việc</t>
+  </si>
+  <si>
+    <t>&lt;a title="Hướng dẫn sử dụng WordPress cơ bản" href="" target="_blank"&gt;Hướng dẫn sử dụng WordPress cơ bản&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng WordPress cơ bản</t>
+  </si>
+  <si>
+    <t>thiết kế website bán hàng online bằng wordpress</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Hướng dẫn thiết kế website bán hàng bằng wordpress&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn thiết kế website bán hàng bằng wordpress</t>
+  </si>
+  <si>
+    <t>https://thietkewebshop.vn/blog/huong-dan-thiet-ke-website-ban-hang-bang-wordpress-mien-phi/</t>
+  </si>
+  <si>
+    <t>&lt;a href=""&gt;hướng dẫn thiết kế website bán hàng bằng Wordpress&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>hướng dẫn thiết kế website bán hàng bằng Wordpress</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;&lt;span style=""&gt;Video hướng dẫn thiết kế web bán hàng bằng Wordpress từ A - Z&lt;/span&gt;&lt;/strong&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Video hướng dẫn thiết kế web bán hàng bằng Wordpress từ A - Z</t>
+  </si>
+  <si>
+    <t>&lt;span style=""&gt;Trọn bộ video hướng dẫn thiết kế website bán hàng bằng Wordpress miễn phí từ A – Z&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Trọn bộ video hướng dẫn thiết kế website bán hàng bằng Wordpress miễn phí từ A – Z</t>
+  </si>
+  <si>
+    <t>&lt;a href=""&gt;&lt;strong&gt;thiết kế web bán hàng bằng wordpress&lt;/strong&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a,strong</t>
+  </si>
+  <si>
+    <t>thiết kế web bán hàng bằng wordpress</t>
+  </si>
+  <si>
+    <t>http://tuhoclamweb.com/huong-dan-thiet-ke-website-mien-phi-bang-wordpress/</t>
+  </si>
+  <si>
+    <t>thiết kế website miễn phí với wordpress</t>
+  </si>
+  <si>
+    <t>&lt;h1 class="" itemprop=""&gt;Hướng dẫn thiết kế Website miễn phí bằng WordPress&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Hướng dẫn thiết kế Website miễn phí bằng WordPress</t>
+  </si>
+  <si>
+    <t>&lt;span style=""&gt;&lt;em&gt;hướng dẫn thiết kế website miễn phí bằng WordPress&lt;/em&gt;.&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>hướng dẫn thiết kế website miễn phí bằng WordPress</t>
+  </si>
+  <si>
+    <t>span,em</t>
+  </si>
+  <si>
+    <t>&lt;figcaption class="wp-caption-text"&gt;sách học wordpress tiếng Việt hiệu quả nhất?&lt;/figcaption&gt;</t>
+  </si>
+  <si>
+    <t>sách học wordpress tiếng Việt hiệu quả nhất?</t>
+  </si>
+  <si>
+    <t>figcaption ,image</t>
+  </si>
+  <si>
+    <t>&lt;a href="" title="tu hoc thiet ke web"&gt;tu hoc thiet ke web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>tu hoc thiet ke web</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;Khóa Học Thiết Kế Web Bằng WordPress&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>Khóa Học Thiết Kế Web Bằng WordPress</t>
+  </si>
+  <si>
+    <t>http://appnet.edu.vn/khoa-hoc-wordpress</t>
+  </si>
+  <si>
+    <t>học thiết kế web bằng wordpress ở tpHCM</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Khóa học thiết kế website bằng WordPress chuẩn SEO&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>Khóa học thiết kế website bằng WordPress chuẩn SEO</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="font-weight:normal;"&gt;Hơn 1/2 website trên thế giới sử dụng WORDPRESS&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Hơn 1/2 website trên thế giới sử dụng WORDPRESS</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Nội dung 1: Giới thiệu về WordPress&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>Nội dung 1: Giới thiệu về WordPress</t>
+  </si>
+  <si>
+    <t>&lt;h3 style="text-align: left;"&gt;&lt;strong&gt;BẠN SẼ ĐƯỢC GÌ SAU KHÓA HỌC NÀY?&lt;/strong&gt;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>BẠN SẼ ĐƯỢC GÌ SAU KHÓA HỌC NÀY?</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Cần chuẩn bị gì để học WordPress nâng cao&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Cần chuẩn bị gì để học WordPress nâng cao</t>
+  </si>
+  <si>
+    <t>https://thachpham.com/tong-hop-serie/wordpress-nang-cao</t>
+  </si>
+  <si>
+    <t>khóa học wordpress nâng cao</t>
+  </si>
+  <si>
+    <t>&lt;a href="" data-wpel-link="internal"&gt;học WordPress&lt;/a&gt;nâng cao</t>
+  </si>
+  <si>
+    <t>học WordPress nâng cao</t>
+  </si>
+  <si>
+    <t>&lt;a href="" data-wpel-link="internal"&gt;Học gì để tự thiết kế được theme WordPress?&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Học gì để tự thiết kế được theme WordPress?</t>
+  </si>
+  <si>
+    <t>&lt;a href=""&gt;&lt;strong&gt;Lập trình theme WordPress toàn tập&lt;/strong&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Lập trình theme WordPress toàn tập</t>
+  </si>
+  <si>
+    <t>&lt;a href="" data-wpel-link="internal"&gt;serie WordPress Nâng Cao&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>serie WordPress Nâng Cao</t>
   </si>
 </sst>
 </file>
@@ -971,6 +1197,1002 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
@@ -2211,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2228,7 +3450,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2267,13 +3489,13 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,13 +3503,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -2299,10 +3521,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -2311,13 +3533,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -2326,13 +3548,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -2454,4 +3676,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>